--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\git\Stock_Hybrid\StockAccounting_ERP\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejas\eclipse-workspace\StockAccounting_ERP\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72B390-E48C-4686-B655-F3649C871271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995952BF-F334-4779-A0E4-E7F373C8945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="2808" windowWidth="17280" windowHeight="8880" xr2:uid="{2E45A967-731C-4281-8E77-DB78433363FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E45A967-731C-4281-8E77-DB78433363FE}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="225">
   <si>
     <t>TCID</t>
   </si>
@@ -637,9 +637,6 @@
   </si>
   <si>
     <t>Dashboard « Stock Accounting</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Wait for Add button</t>
@@ -1154,7 +1151,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1207,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1222,7 +1219,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1234,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1246,31 +1243,31 @@
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>80</v>
@@ -1783,7 +1780,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1891,7 +1888,7 @@
         <v>169</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -2453,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -2808,7 +2805,7 @@
         <v>144</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -2844,7 +2841,7 @@
         <v>183</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -2862,7 +2859,7 @@
         <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -3021,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -3586,7 +3583,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -3923,7 +3920,7 @@
         <v>165</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -3941,7 +3938,7 @@
         <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -4055,7 +4052,7 @@
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
@@ -4082,7 +4079,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -4172,7 +4169,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -4915,10 +4912,10 @@
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>20</v>
@@ -4927,13 +4924,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
@@ -4942,7 +4939,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -4951,7 +4948,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -4960,7 +4957,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -4969,16 +4966,16 @@
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -4987,10 +4984,10 @@
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
@@ -5005,16 +5002,16 @@
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
